--- a/SourceDataTables/FigS9.xlsx
+++ b/SourceDataTables/FigS9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="42">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -169,14 +169,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,30 +219,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -245,7 +265,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -268,7 +288,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -291,7 +311,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -314,7 +334,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -337,7 +357,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -360,7 +380,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -383,7 +403,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -406,7 +426,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -429,7 +449,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -452,7 +472,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -475,7 +495,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -498,7 +518,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -521,7 +541,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -544,7 +564,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -567,7 +587,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -590,7 +610,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -613,7 +633,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -636,7 +656,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -659,7 +679,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -682,7 +702,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -705,7 +725,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -728,7 +748,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -751,7 +771,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -774,7 +794,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -797,7 +817,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -820,7 +840,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -843,7 +863,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -866,7 +886,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -889,7 +909,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -912,7 +932,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -935,7 +955,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -958,7 +978,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -981,7 +1001,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1004,7 +1024,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36">

--- a/SourceDataTables/FigS9.xlsx
+++ b/SourceDataTables/FigS9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="42">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -179,11 +179,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -197,6 +199,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,30 +223,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -265,7 +269,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -288,7 +292,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -311,7 +315,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -334,7 +338,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -357,7 +361,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -380,7 +384,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -403,7 +407,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -426,7 +430,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -449,7 +453,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -472,7 +476,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -495,7 +499,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -518,7 +522,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -541,7 +545,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -564,7 +568,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -587,7 +591,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -610,7 +614,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -633,7 +637,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -656,7 +660,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -679,7 +683,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -702,7 +706,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -725,7 +729,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -748,7 +752,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -771,7 +775,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -794,7 +798,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -817,7 +821,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -840,7 +844,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -863,7 +867,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -886,7 +890,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -909,7 +913,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -932,7 +936,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -955,7 +959,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -978,7 +982,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1001,7 +1005,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1024,7 +1028,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">

--- a/SourceDataTables/FigS9.xlsx
+++ b/SourceDataTables/FigS9.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,38 +169,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,30 +199,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -269,7 +245,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -292,7 +268,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -315,7 +291,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -338,7 +314,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -361,7 +337,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -384,7 +360,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -407,7 +383,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -430,7 +406,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -453,7 +429,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -476,7 +452,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -499,7 +475,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -522,7 +498,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -545,7 +521,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -568,7 +544,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -591,7 +567,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -614,7 +590,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -637,7 +613,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -660,7 +636,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -683,7 +659,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -706,7 +682,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -729,7 +705,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -752,7 +728,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -775,7 +751,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -798,7 +774,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -821,7 +797,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -844,7 +820,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -867,7 +843,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -890,7 +866,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -913,7 +889,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -936,7 +912,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -959,7 +935,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -982,7 +958,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1005,7 +981,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1028,7 +1004,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
